--- a/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2017-2018.xlsx
+++ b/Aide/wwwroot/AdvisingMaterial/Majors/Software Engineer/StudyPlan/2017-2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Dropbox\Advising\SE_Plans_Azzeh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ib_ra\Documents\GitHub\Aide\Aide\wwwroot\AdvisingMaterial\Majors\Software Engineer\StudyPlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3BF9BD-2FAC-4C1C-B6A9-86D41344C04E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2BCE5A-BE0F-453D-AC49-519E85F3A360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SE-Ar" sheetId="21" r:id="rId1"/>
@@ -29,7 +29,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3209,7 +3213,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="325">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3628,492 +3632,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4126,12 +3644,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4154,12 +3666,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4170,13 +3676,514 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="59" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="44" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4900,14 +4907,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>157313</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>538313</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>731837</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1112837</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>367934</xdr:rowOff>
     </xdr:to>
@@ -4938,12 +4945,86 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2963210038" y="7934"/>
+          <a:off x="1300313" y="7934"/>
           <a:ext cx="574524" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>508169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>16603</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8DED2F-7824-44E3-B953-F0BDED49BDA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="285750" y="0"/>
+          <a:ext cx="402336" cy="397603"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5416,120 +5497,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="187" t="s">
         <v>379</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
-      <c r="K1" s="170"/>
-      <c r="L1" s="170"/>
-      <c r="M1" s="170"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="187"/>
+      <c r="E1" s="187"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
     </row>
     <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="187" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
     </row>
     <row r="3" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="170" t="s">
+      <c r="B3" s="187" t="s">
         <v>502</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
     </row>
     <row r="4" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="187" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
     </row>
     <row r="5" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="188" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-      <c r="K5" s="171"/>
-      <c r="L5" s="171"/>
-      <c r="M5" s="171"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+      <c r="L5" s="188"/>
+      <c r="M5" s="188"/>
     </row>
     <row r="6" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="184" t="s">
         <v>465</v>
       </c>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
-      <c r="H6" s="172" t="s">
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="189" t="s">
         <v>505</v>
       </c>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="174"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="190"/>
+      <c r="M6" s="191"/>
     </row>
     <row r="7" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="163" t="s">
         <v>503</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="175" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="192" t="s">
         <v>467</v>
       </c>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="177"/>
+      <c r="I7" s="193"/>
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="194"/>
     </row>
     <row r="8" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="103" t="s">
@@ -5538,28 +5619,28 @@
       <c r="C8" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="169" t="s">
         <v>392</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="154"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
       <c r="G8" s="105" t="s">
         <v>385</v>
       </c>
-      <c r="H8" s="178" t="s">
+      <c r="H8" s="195" t="s">
         <v>382</v>
       </c>
-      <c r="I8" s="180" t="s">
+      <c r="I8" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="J8" s="152" t="s">
+      <c r="J8" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="180" t="s">
+      <c r="K8" s="171"/>
+      <c r="L8" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="M8" s="182" t="s">
+      <c r="M8" s="199" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5571,26 +5652,26 @@
         <f>VLOOKUP($B9,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>العلــوم العسكـرية *</v>
       </c>
-      <c r="D9" s="142">
+      <c r="D9" s="159">
         <f>VLOOKUP($B9,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="108" t="str">
         <f>VLOOKUP($B9,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="181"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="198"/>
       <c r="J9" s="109" t="s">
         <v>386</v>
       </c>
       <c r="K9" s="109" t="s">
         <v>387</v>
       </c>
-      <c r="L9" s="181"/>
-      <c r="M9" s="183"/>
+      <c r="L9" s="198"/>
+      <c r="M9" s="200"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -5603,12 +5684,12 @@
         <f>VLOOKUP($B10,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الثقافـــة الإسلامية</v>
       </c>
-      <c r="D10" s="142">
+      <c r="D10" s="159">
         <f>VLOOKUP($B10,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
       <c r="G10" s="108" t="str">
         <f>VLOOKUP($B10,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -5648,12 +5729,12 @@
         <f>VLOOKUP($B11,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>اللغـــة الـعربيـة (1) **</v>
       </c>
-      <c r="D11" s="142">
+      <c r="D11" s="159">
         <f>VLOOKUP($B11,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
       <c r="G11" s="108">
         <f>VLOOKUP($B11,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401099</v>
@@ -5693,12 +5774,12 @@
         <f>VLOOKUP($B12,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>اللغـة الإنجليزيـة (1) **</v>
       </c>
-      <c r="D12" s="142">
+      <c r="D12" s="159">
         <f>VLOOKUP($B12,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
       <c r="G12" s="108">
         <f>VLOOKUP($B12,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401098</v>
@@ -5738,12 +5819,12 @@
         <f>VLOOKUP($B13,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>أخلاقيات الحياة الجامعية</v>
       </c>
-      <c r="D13" s="142">
+      <c r="D13" s="159">
         <f>VLOOKUP($B13,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
       <c r="G13" s="108" t="str">
         <f>VLOOKUP($B13,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -5776,16 +5857,16 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="140" t="s">
+      <c r="B14" s="157" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141">
+      <c r="C14" s="158"/>
+      <c r="D14" s="158">
         <f>SUM(D9:F13)</f>
         <v>15</v>
       </c>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="111"/>
       <c r="H14" s="106">
         <v>1301236</v>
@@ -5815,14 +5896,14 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="166" t="s">
         <v>511</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="151"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="168"/>
       <c r="H15" s="106">
         <v>1301304</v>
       </c>
@@ -5858,12 +5939,12 @@
         <f>VLOOKUP($B16,Crses!$A$2:$J$300,2,FALSE)</f>
         <v xml:space="preserve">ريادة الأعمال </v>
       </c>
-      <c r="D16" s="142">
+      <c r="D16" s="159">
         <f>VLOOKUP($B16,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
       <c r="G16" s="108" t="str">
         <f>VLOOKUP($B16,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -5903,12 +5984,12 @@
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>القضية الفلسطينية والتاريخ العربي المعاصر</v>
       </c>
-      <c r="D17" s="142">
+      <c r="D17" s="159">
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
       <c r="G17" s="108" t="str">
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -5948,12 +6029,12 @@
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>حقوق الإنسان</v>
       </c>
-      <c r="D18" s="142">
+      <c r="D18" s="159">
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
       <c r="G18" s="108" t="str">
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -5991,12 +6072,12 @@
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>القانون في حياتنا</v>
       </c>
-      <c r="D19" s="142">
+      <c r="D19" s="159">
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
       <c r="G19" s="108" t="str">
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6034,12 +6115,12 @@
         <f>VLOOKUP($B20,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الإسلام وقضايا العصر</v>
       </c>
-      <c r="D20" s="142">
+      <c r="D20" s="159">
         <f>VLOOKUP($B20,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
       <c r="G20" s="108" t="str">
         <f>VLOOKUP($B20,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6077,12 +6158,12 @@
         <f>VLOOKUP($B21,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الأخلاق في الإسلام</v>
       </c>
-      <c r="D21" s="142">
+      <c r="D21" s="159">
         <f>VLOOKUP($B21,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
       <c r="G21" s="108" t="str">
         <f>VLOOKUP($B21,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6120,12 +6201,12 @@
         <f>VLOOKUP($B22,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الثقافة الفنية</v>
       </c>
-      <c r="D22" s="142">
+      <c r="D22" s="159">
         <f>VLOOKUP($B22,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
       <c r="G22" s="108" t="str">
         <f>VLOOKUP($B22,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6163,12 +6244,12 @@
         <f>VLOOKUP($B23,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>مدخل إلى علم المكتبات</v>
       </c>
-      <c r="D23" s="142">
+      <c r="D23" s="159">
         <f>VLOOKUP($B23,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
       <c r="G23" s="108" t="str">
         <f>VLOOKUP($B23,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6206,12 +6287,12 @@
         <f>VLOOKUP($B24,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الرياضة والصحة</v>
       </c>
-      <c r="D24" s="142">
+      <c r="D24" s="159">
         <f>VLOOKUP($B24,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="108" t="str">
         <f>VLOOKUP($B24,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6249,12 +6330,12 @@
         <f>VLOOKUP($B25,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>مدخل إلى علم الاجتماع</v>
       </c>
-      <c r="D25" s="142">
+      <c r="D25" s="159">
         <f>VLOOKUP($B25,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
       <c r="G25" s="108" t="str">
         <f>VLOOKUP($B25,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6292,12 +6373,12 @@
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الإنسان والبيئة</v>
       </c>
-      <c r="D26" s="142">
+      <c r="D26" s="159">
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
       <c r="G26" s="108" t="str">
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6335,12 +6416,12 @@
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>مدخل إلى علم النفس</v>
       </c>
-      <c r="D27" s="142">
+      <c r="D27" s="159">
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
       <c r="G27" s="108" t="str">
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6378,12 +6459,12 @@
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,2,FALSE)</f>
         <v xml:space="preserve">التربية الوطنية </v>
       </c>
-      <c r="D28" s="142">
+      <c r="D28" s="159">
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
       <c r="G28" s="108" t="str">
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6421,12 +6502,12 @@
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>اللغة العربية (2)</v>
       </c>
-      <c r="D29" s="142">
+      <c r="D29" s="159">
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
       <c r="G29" s="108">
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401110</v>
@@ -6464,12 +6545,12 @@
         <f>VLOOKUP($B30,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>اللغـة الإنجليزية (2)</v>
       </c>
-      <c r="D30" s="142">
+      <c r="D30" s="159">
         <f>VLOOKUP($B30,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
       <c r="G30" s="108">
         <f>VLOOKUP($B30,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401120</v>
@@ -6507,12 +6588,12 @@
         <f>VLOOKUP($B31,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>العلوم عند العرب والمسلمين</v>
       </c>
-      <c r="D31" s="142">
+      <c r="D31" s="159">
         <f>VLOOKUP($B31,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="159"/>
       <c r="G31" s="108" t="str">
         <f>VLOOKUP($B31,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6550,12 +6631,12 @@
         <f>VLOOKUP($B32,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الإسعافات الأولية</v>
       </c>
-      <c r="D32" s="142">
+      <c r="D32" s="159">
         <f>VLOOKUP($B32,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
       <c r="G32" s="108" t="str">
         <f>VLOOKUP($B32,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6593,12 +6674,12 @@
         <f>VLOOKUP($B33,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الطاقة الخضراء في حياتنا</v>
       </c>
-      <c r="D33" s="142">
+      <c r="D33" s="159">
         <f>VLOOKUP($B33,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
       <c r="G33" s="108" t="str">
         <f>VLOOKUP($B33,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6636,12 +6717,12 @@
         <f>VLOOKUP($B34,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>تكنولوجيا الاتصال و التواصل الاجتماعي</v>
       </c>
-      <c r="D34" s="142">
+      <c r="D34" s="159">
         <f>VLOOKUP($B34,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
       <c r="G34" s="108" t="str">
         <f>VLOOKUP($B34,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6679,12 +6760,12 @@
         <f>VLOOKUP($B35,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>التغذية في الصحة والمرض</v>
       </c>
-      <c r="D35" s="142">
+      <c r="D35" s="159">
         <f>VLOOKUP($B35,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
       <c r="G35" s="108" t="str">
         <f>VLOOKUP($B35,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -6722,20 +6803,20 @@
         <f>VLOOKUP($B36,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>الثقافة الصحية</v>
       </c>
-      <c r="D36" s="142">
+      <c r="D36" s="159">
         <f>VLOOKUP($B36,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
       <c r="G36" s="108" t="str">
         <f>VLOOKUP($B36,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H36" s="193" t="s">
+      <c r="H36" s="210" t="s">
         <v>388</v>
       </c>
-      <c r="I36" s="194"/>
+      <c r="I36" s="211"/>
       <c r="J36" s="113">
         <f>SUM(J10:J35)</f>
         <v>60</v>
@@ -6759,100 +6840,100 @@
         <f>VLOOKUP($B37,Crses!$A$2:$J$300,2,FALSE)</f>
         <v>المجتمعات الرقمية</v>
       </c>
-      <c r="D37" s="143">
+      <c r="D37" s="160">
         <f>VLOOKUP($B37,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="144"/>
-      <c r="F37" s="145"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="162"/>
       <c r="G37" s="117" t="str">
         <f>VLOOKUP($B37,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H37" s="195" t="s">
+      <c r="H37" s="212" t="s">
         <v>438</v>
       </c>
-      <c r="I37" s="196"/>
-      <c r="J37" s="196"/>
-      <c r="K37" s="196"/>
-      <c r="L37" s="196"/>
-      <c r="M37" s="197"/>
+      <c r="I37" s="213"/>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="213"/>
+      <c r="M37" s="214"/>
       <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="172" t="s">
+      <c r="B38" s="189" t="s">
         <v>466</v>
       </c>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="174"/>
-      <c r="H38" s="190" t="s">
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="207" t="s">
         <v>558</v>
       </c>
-      <c r="I38" s="191"/>
-      <c r="J38" s="191"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="192"/>
+      <c r="I38" s="208"/>
+      <c r="J38" s="208"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="208"/>
+      <c r="M38" s="209"/>
       <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="178" t="s">
+      <c r="B39" s="195" t="s">
         <v>382</v>
       </c>
-      <c r="C39" s="180" t="s">
+      <c r="C39" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="D39" s="152" t="s">
+      <c r="D39" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="E39" s="154"/>
-      <c r="F39" s="180" t="s">
+      <c r="E39" s="171"/>
+      <c r="F39" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="G39" s="188" t="s">
+      <c r="G39" s="205" t="s">
         <v>385</v>
       </c>
-      <c r="H39" s="178" t="s">
+      <c r="H39" s="195" t="s">
         <v>382</v>
       </c>
-      <c r="I39" s="180" t="s">
+      <c r="I39" s="197" t="s">
         <v>383</v>
       </c>
-      <c r="J39" s="152" t="s">
+      <c r="J39" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="K39" s="154"/>
-      <c r="L39" s="180" t="s">
+      <c r="K39" s="171"/>
+      <c r="L39" s="197" t="s">
         <v>392</v>
       </c>
-      <c r="M39" s="182" t="s">
+      <c r="M39" s="199" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="179"/>
-      <c r="C40" s="181"/>
+      <c r="B40" s="196"/>
+      <c r="C40" s="198"/>
       <c r="D40" s="109" t="s">
         <v>386</v>
       </c>
       <c r="E40" s="109" t="s">
         <v>387</v>
       </c>
-      <c r="F40" s="181"/>
-      <c r="G40" s="189"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="181"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="196"/>
+      <c r="I40" s="198"/>
       <c r="J40" s="109" t="s">
         <v>386</v>
       </c>
       <c r="K40" s="109" t="s">
         <v>387</v>
       </c>
-      <c r="L40" s="181"/>
-      <c r="M40" s="183"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="200"/>
     </row>
     <row r="41" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="106">
@@ -7237,14 +7318,14 @@
         <f>VLOOKUP($H48,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>Dept. Approval</v>
       </c>
-      <c r="Q48" s="187"/>
-      <c r="R48" s="187"/>
+      <c r="Q48" s="204"/>
+      <c r="R48" s="204"/>
     </row>
     <row r="49" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="157" t="s">
         <v>388</v>
       </c>
-      <c r="C49" s="141"/>
+      <c r="C49" s="158"/>
       <c r="D49" s="113">
         <f>SUM(D41:D48)</f>
         <v>22</v>
@@ -7283,14 +7364,14 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="158" t="s">
+      <c r="B50" s="175" t="s">
         <v>504</v>
       </c>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="160"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="177"/>
       <c r="H50" s="106">
         <v>1301464</v>
       </c>
@@ -7316,12 +7397,12 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="161"/>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="163"/>
+      <c r="B51" s="178"/>
+      <c r="C51" s="179"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="179"/>
+      <c r="G51" s="180"/>
       <c r="H51" s="106">
         <v>1302337</v>
       </c>
@@ -7348,12 +7429,12 @@
       <c r="R51" s="5"/>
     </row>
     <row r="52" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="161"/>
-      <c r="C52" s="162"/>
-      <c r="D52" s="162"/>
-      <c r="E52" s="162"/>
-      <c r="F52" s="162"/>
-      <c r="G52" s="163"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="179"/>
+      <c r="E52" s="179"/>
+      <c r="F52" s="179"/>
+      <c r="G52" s="180"/>
       <c r="H52" s="106">
         <v>1302390</v>
       </c>
@@ -7379,12 +7460,12 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="164"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="165"/>
-      <c r="F53" s="165"/>
-      <c r="G53" s="166"/>
+      <c r="B53" s="181"/>
+      <c r="C53" s="182"/>
+      <c r="D53" s="182"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="183"/>
       <c r="H53" s="106">
         <v>1302392</v>
       </c>
@@ -7410,14 +7491,14 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="172" t="s">
+      <c r="B54" s="189" t="s">
         <v>464</v>
       </c>
-      <c r="C54" s="173"/>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="174"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="191"/>
       <c r="H54" s="106">
         <v>1302483</v>
       </c>
@@ -7443,14 +7524,14 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="155" t="s">
+      <c r="B55" s="172" t="s">
         <v>389</v>
       </c>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="157"/>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="174"/>
       <c r="H55" s="106">
         <v>1302490</v>
       </c>
@@ -7476,20 +7557,20 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="184" t="s">
+      <c r="B56" s="201" t="s">
         <v>603</v>
       </c>
-      <c r="C56" s="185"/>
-      <c r="D56" s="185"/>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="185"/>
-      <c r="I56" s="185"/>
-      <c r="J56" s="185"/>
-      <c r="K56" s="185"/>
-      <c r="L56" s="185"/>
-      <c r="M56" s="186"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="202"/>
+      <c r="E56" s="202"/>
+      <c r="F56" s="202"/>
+      <c r="G56" s="202"/>
+      <c r="H56" s="202"/>
+      <c r="I56" s="202"/>
+      <c r="J56" s="202"/>
+      <c r="K56" s="202"/>
+      <c r="L56" s="202"/>
+      <c r="M56" s="203"/>
     </row>
     <row r="57" spans="2:18" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
@@ -7657,170 +7738,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="225" t="s">
+      <c r="B1" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="242"/>
+      <c r="E1" s="242"/>
+      <c r="F1" s="242"/>
+      <c r="G1" s="242"/>
+      <c r="H1" s="242"/>
+      <c r="I1" s="242"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="242"/>
+      <c r="L1" s="242"/>
+      <c r="M1" s="242"/>
     </row>
     <row r="2" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
     </row>
     <row r="3" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="225" t="s">
+      <c r="B3" s="242" t="s">
         <v>567</v>
       </c>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="225"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
     </row>
     <row r="4" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="225" t="s">
+      <c r="B4" s="242" t="s">
         <v>559</v>
       </c>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
     </row>
     <row r="5" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="226" t="s">
+      <c r="B5" s="243" t="s">
         <v>560</v>
       </c>
-      <c r="C5" s="226"/>
-      <c r="D5" s="226"/>
-      <c r="E5" s="226"/>
-      <c r="F5" s="226"/>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="226"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="243"/>
+      <c r="H5" s="243"/>
+      <c r="I5" s="243"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="243"/>
+      <c r="L5" s="243"/>
+      <c r="M5" s="243"/>
     </row>
     <row r="6" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="201" t="s">
+      <c r="B6" s="218" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="203"/>
-      <c r="H6" s="201" t="s">
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
+      <c r="F6" s="219"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="218" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-      <c r="L6" s="202"/>
-      <c r="M6" s="203"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="219"/>
+      <c r="K6" s="219"/>
+      <c r="L6" s="219"/>
+      <c r="M6" s="220"/>
     </row>
     <row r="7" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="221" t="s">
         <v>564</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="206"/>
-      <c r="H7" s="204" t="s">
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="221" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="205"/>
-      <c r="J7" s="205"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="206"/>
+      <c r="I7" s="222"/>
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="223"/>
     </row>
     <row r="8" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="224" t="s">
         <v>570</v>
       </c>
-      <c r="C8" s="209" t="s">
+      <c r="C8" s="226" t="s">
         <v>572</v>
       </c>
-      <c r="D8" s="213" t="s">
+      <c r="D8" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="211" t="s">
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="207" t="s">
+      <c r="H8" s="224" t="s">
         <v>571</v>
       </c>
-      <c r="I8" s="209" t="s">
+      <c r="I8" s="226" t="s">
         <v>572</v>
       </c>
-      <c r="J8" s="227" t="s">
+      <c r="J8" s="244" t="s">
         <v>566</v>
       </c>
-      <c r="K8" s="228"/>
-      <c r="L8" s="209" t="s">
+      <c r="K8" s="245"/>
+      <c r="L8" s="226" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="211" t="s">
+      <c r="M8" s="228" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="208"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="216"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="212"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="210"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="229"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="227"/>
       <c r="J9" s="43" t="s">
         <v>565</v>
       </c>
       <c r="K9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="210"/>
-      <c r="M9" s="212"/>
+      <c r="L9" s="227"/>
+      <c r="M9" s="229"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
@@ -7833,12 +7914,12 @@
         <f>VLOOKUP($B10,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Military Science*</v>
       </c>
-      <c r="D10" s="219">
+      <c r="D10" s="236">
         <f>VLOOKUP($B10,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
+      <c r="E10" s="236"/>
+      <c r="F10" s="236"/>
       <c r="G10" s="46" t="str">
         <f>VLOOKUP($B10,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -7878,12 +7959,12 @@
         <f>VLOOKUP($B11,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>The Islamic Culture</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="215">
         <f>VLOOKUP($B11,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E11" s="199"/>
-      <c r="F11" s="200"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="217"/>
       <c r="G11" s="46" t="str">
         <f>VLOOKUP($B11,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -7923,12 +8004,12 @@
         <f>VLOOKUP($B12,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Arabic Language  (1) **</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="215">
         <f>VLOOKUP($B12,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E12" s="199"/>
-      <c r="F12" s="200"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="217"/>
       <c r="G12" s="46">
         <f>VLOOKUP($B12,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401099</v>
@@ -7968,12 +8049,12 @@
         <f>VLOOKUP($B13,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>English Language (1) **</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="215">
         <f>VLOOKUP($B13,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="199"/>
-      <c r="F13" s="200"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="217"/>
       <c r="G13" s="46">
         <f>VLOOKUP($B13,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401098</v>
@@ -8013,12 +8094,12 @@
         <f>VLOOKUP($B14,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>University Ethics</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="215">
         <f>VLOOKUP($B14,Crses!$A$2:$J$300,4,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E14" s="199"/>
-      <c r="F14" s="200"/>
+      <c r="E14" s="216"/>
+      <c r="F14" s="217"/>
       <c r="G14" s="46" t="str">
         <f>VLOOKUP($B14,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8051,16 +8132,16 @@
       <c r="S14" s="15"/>
     </row>
     <row r="15" spans="2:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="223" t="s">
+      <c r="B15" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224">
+      <c r="C15" s="241"/>
+      <c r="D15" s="241">
         <f>SUM(D10:F14)</f>
         <v>15</v>
       </c>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="241"/>
       <c r="G15" s="27"/>
       <c r="H15" s="41">
         <v>1301304</v>
@@ -8090,14 +8171,14 @@
       <c r="S15" s="15"/>
     </row>
     <row r="16" spans="2:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="237" t="s">
         <v>563</v>
       </c>
-      <c r="C16" s="221"/>
-      <c r="D16" s="221"/>
-      <c r="E16" s="221"/>
-      <c r="F16" s="221"/>
-      <c r="G16" s="222"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="238"/>
+      <c r="E16" s="238"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="239"/>
       <c r="H16" s="41">
         <v>1301305</v>
       </c>
@@ -8133,12 +8214,12 @@
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Entrepreneurship in Business</v>
       </c>
-      <c r="D17" s="219">
+      <c r="D17" s="236">
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
+      <c r="E17" s="236"/>
+      <c r="F17" s="236"/>
       <c r="G17" s="46" t="str">
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8178,12 +8259,12 @@
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Palastinian Issue and Contemporary Arab History</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="215">
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E18" s="199"/>
-      <c r="F18" s="200"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="217"/>
       <c r="G18" s="46" t="str">
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8221,12 +8302,12 @@
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Human Rights</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="215">
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E19" s="199"/>
-      <c r="F19" s="200"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="217"/>
       <c r="G19" s="46" t="str">
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8264,12 +8345,12 @@
         <f>VLOOKUP($B20,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Islam and Contemporary Issues</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="215">
         <f>VLOOKUP($B20,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E20" s="199"/>
-      <c r="F20" s="200"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="217"/>
       <c r="G20" s="46" t="str">
         <f>VLOOKUP($B20,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8307,12 +8388,12 @@
         <f>VLOOKUP($B21,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Ethics in Islam</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="215">
         <f>VLOOKUP($B21,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E21" s="199"/>
-      <c r="F21" s="200"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="217"/>
       <c r="G21" s="46" t="str">
         <f>VLOOKUP($B21,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8350,12 +8431,12 @@
         <f>VLOOKUP($B22,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Art Education</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="215">
         <f>VLOOKUP($B22,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E22" s="199"/>
-      <c r="F22" s="200"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="217"/>
       <c r="G22" s="46" t="str">
         <f>VLOOKUP($B22,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8393,12 +8474,12 @@
         <f>VLOOKUP($B23,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Introduction to Library Science</v>
       </c>
-      <c r="D23" s="198">
+      <c r="D23" s="215">
         <f>VLOOKUP($B23,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E23" s="199"/>
-      <c r="F23" s="200"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="217"/>
       <c r="G23" s="46" t="str">
         <f>VLOOKUP($B23,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8436,12 +8517,12 @@
         <f>VLOOKUP($B24,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Sports and Health</v>
       </c>
-      <c r="D24" s="198">
+      <c r="D24" s="215">
         <f>VLOOKUP($B24,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E24" s="199"/>
-      <c r="F24" s="200"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="217"/>
       <c r="G24" s="46" t="str">
         <f>VLOOKUP($B24,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8479,12 +8560,12 @@
         <f>VLOOKUP($B25,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Introduction to Sociology</v>
       </c>
-      <c r="D25" s="198">
+      <c r="D25" s="215">
         <f>VLOOKUP($B25,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E25" s="199"/>
-      <c r="F25" s="200"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="217"/>
       <c r="G25" s="46" t="str">
         <f>VLOOKUP($B25,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8522,12 +8603,12 @@
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Human and the Environment</v>
       </c>
-      <c r="D26" s="198">
+      <c r="D26" s="215">
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E26" s="199"/>
-      <c r="F26" s="200"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="217"/>
       <c r="G26" s="46" t="str">
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8565,12 +8646,12 @@
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Inroduction to Psychology</v>
       </c>
-      <c r="D27" s="198">
+      <c r="D27" s="215">
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E27" s="199"/>
-      <c r="F27" s="200"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="217"/>
       <c r="G27" s="46" t="str">
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8608,12 +8689,12 @@
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,3,FALSE)</f>
         <v xml:space="preserve">National Education </v>
       </c>
-      <c r="D28" s="198">
+      <c r="D28" s="215">
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E28" s="199"/>
-      <c r="F28" s="200"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="217"/>
       <c r="G28" s="46" t="str">
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8651,12 +8732,12 @@
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Arabic Language  (2)</v>
       </c>
-      <c r="D29" s="198">
+      <c r="D29" s="215">
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E29" s="199"/>
-      <c r="F29" s="200"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="217"/>
       <c r="G29" s="46">
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401110</v>
@@ -8694,12 +8775,12 @@
         <f>VLOOKUP($B30,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>English Language (2)</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="215">
         <f>VLOOKUP($B30,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E30" s="199"/>
-      <c r="F30" s="200"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="217"/>
       <c r="G30" s="46">
         <f>VLOOKUP($B30,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401120</v>
@@ -8737,12 +8818,12 @@
         <f>VLOOKUP($B31,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Arab and Muslims Sciences</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="215">
         <f>VLOOKUP($B31,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E31" s="199"/>
-      <c r="F31" s="200"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="217"/>
       <c r="G31" s="46" t="str">
         <f>VLOOKUP($B31,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8780,12 +8861,12 @@
         <f>VLOOKUP($B32,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>First Aids</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="215">
         <f>VLOOKUP($B32,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E32" s="199"/>
-      <c r="F32" s="200"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="217"/>
       <c r="G32" s="46" t="str">
         <f>VLOOKUP($B32,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8823,12 +8904,12 @@
         <f>VLOOKUP($B33,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Green Energy in Our Life</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="215">
         <f>VLOOKUP($B33,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E33" s="199"/>
-      <c r="F33" s="200"/>
+      <c r="E33" s="216"/>
+      <c r="F33" s="217"/>
       <c r="G33" s="46" t="str">
         <f>VLOOKUP($B33,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8866,12 +8947,12 @@
         <f>VLOOKUP($B34,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Communication and Social Media Technology</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="215">
         <f>VLOOKUP($B34,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E34" s="199"/>
-      <c r="F34" s="200"/>
+      <c r="E34" s="216"/>
+      <c r="F34" s="217"/>
       <c r="G34" s="46" t="str">
         <f>VLOOKUP($B34,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8909,12 +8990,12 @@
         <f>VLOOKUP($B35,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Nutrition in Health and Illness</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="215">
         <f>VLOOKUP($B35,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E35" s="199"/>
-      <c r="F35" s="200"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="217"/>
       <c r="G35" s="46" t="str">
         <f>VLOOKUP($B35,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8952,12 +9033,12 @@
         <f>VLOOKUP($B36,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Health Culture</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="215">
         <f>VLOOKUP($B36,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E36" s="199"/>
-      <c r="F36" s="200"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="217"/>
       <c r="G36" s="46" t="str">
         <f>VLOOKUP($B36,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -8989,12 +9070,12 @@
         <f>VLOOKUP($B37,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Digital Society</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="215">
         <f>VLOOKUP($B37,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E37" s="199"/>
-      <c r="F37" s="200"/>
+      <c r="E37" s="216"/>
+      <c r="F37" s="217"/>
       <c r="G37" s="46" t="str">
         <f>VLOOKUP($B37,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -9017,12 +9098,12 @@
         <f>VLOOKUP($B38,Crses!$A$2:$J$300,3,FALSE)</f>
         <v>Law in our life</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="215">
         <f>VLOOKUP($B38,Crses!$A$2:$J$300,6,FALSE)</f>
         <v>3</v>
       </c>
-      <c r="E38" s="199"/>
-      <c r="F38" s="200"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="217"/>
       <c r="G38" s="46" t="str">
         <f>VLOOKUP($B38,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
@@ -9038,14 +9119,14 @@
       <c r="Q38" s="19"/>
     </row>
     <row r="39" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="201" t="s">
+      <c r="B39" s="218" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="202"/>
-      <c r="D39" s="202"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="202"/>
-      <c r="G39" s="203"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="219"/>
+      <c r="G39" s="220"/>
       <c r="H39" s="68" t="s">
         <v>571</v>
       </c>
@@ -9064,20 +9145,20 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="232" t="s">
+      <c r="B40" s="249" t="s">
         <v>571</v>
       </c>
-      <c r="C40" s="233" t="s">
+      <c r="C40" s="250" t="s">
         <v>572</v>
       </c>
-      <c r="D40" s="233" t="s">
+      <c r="D40" s="250" t="s">
         <v>566</v>
       </c>
-      <c r="E40" s="233"/>
-      <c r="F40" s="233" t="s">
+      <c r="E40" s="250"/>
+      <c r="F40" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="234" t="s">
+      <c r="G40" s="251" t="s">
         <v>23</v>
       </c>
       <c r="H40" s="69"/>
@@ -9092,16 +9173,16 @@
       <c r="M40" s="75"/>
     </row>
     <row r="41" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="232"/>
-      <c r="C41" s="233"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="250"/>
       <c r="D41" s="43" t="s">
         <v>565</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="233"/>
-      <c r="G41" s="234"/>
+      <c r="F41" s="250"/>
+      <c r="G41" s="251"/>
       <c r="H41" s="51">
         <v>1301301</v>
       </c>
@@ -9461,8 +9542,8 @@
         <f>VLOOKUP($H48,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>Dept. Approval</v>
       </c>
-      <c r="Q48" s="235"/>
-      <c r="R48" s="235"/>
+      <c r="Q48" s="252"/>
+      <c r="R48" s="252"/>
     </row>
     <row r="49" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="44">
@@ -9513,10 +9594,10 @@
       </c>
     </row>
     <row r="50" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="223" t="s">
+      <c r="B50" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="224"/>
+      <c r="C50" s="241"/>
       <c r="D50" s="42">
         <f>SUM(D42:D49)</f>
         <v>22</v>
@@ -9555,14 +9636,14 @@
       </c>
     </row>
     <row r="51" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="242" t="s">
+      <c r="B51" s="259" t="s">
         <v>573</v>
       </c>
-      <c r="C51" s="243"/>
-      <c r="D51" s="243"/>
-      <c r="E51" s="243"/>
-      <c r="F51" s="243"/>
-      <c r="G51" s="244"/>
+      <c r="C51" s="260"/>
+      <c r="D51" s="260"/>
+      <c r="E51" s="260"/>
+      <c r="F51" s="260"/>
+      <c r="G51" s="261"/>
       <c r="H51" s="51">
         <v>1302337</v>
       </c>
@@ -9589,12 +9670,12 @@
       <c r="R51" s="19"/>
     </row>
     <row r="52" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="245"/>
-      <c r="C52" s="246"/>
-      <c r="D52" s="246"/>
-      <c r="E52" s="246"/>
-      <c r="F52" s="246"/>
-      <c r="G52" s="247"/>
+      <c r="B52" s="262"/>
+      <c r="C52" s="263"/>
+      <c r="D52" s="263"/>
+      <c r="E52" s="263"/>
+      <c r="F52" s="263"/>
+      <c r="G52" s="264"/>
       <c r="H52" s="51">
         <v>1302390</v>
       </c>
@@ -9620,12 +9701,12 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="248"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="249"/>
-      <c r="F53" s="249"/>
-      <c r="G53" s="250"/>
+      <c r="B53" s="265"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="266"/>
+      <c r="E53" s="266"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="267"/>
       <c r="H53" s="51">
         <v>1302392</v>
       </c>
@@ -9651,14 +9732,14 @@
       </c>
     </row>
     <row r="54" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="201" t="s">
+      <c r="B54" s="218" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="202"/>
-      <c r="D54" s="202"/>
-      <c r="E54" s="202"/>
-      <c r="F54" s="202"/>
-      <c r="G54" s="203"/>
+      <c r="C54" s="219"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="219"/>
+      <c r="G54" s="220"/>
       <c r="H54" s="51">
         <v>1302483</v>
       </c>
@@ -9684,14 +9765,14 @@
       </c>
     </row>
     <row r="55" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="236" t="s">
+      <c r="B55" s="253" t="s">
         <v>574</v>
       </c>
-      <c r="C55" s="237"/>
-      <c r="D55" s="237"/>
-      <c r="E55" s="237"/>
-      <c r="F55" s="237"/>
-      <c r="G55" s="238"/>
+      <c r="C55" s="254"/>
+      <c r="D55" s="254"/>
+      <c r="E55" s="254"/>
+      <c r="F55" s="254"/>
+      <c r="G55" s="255"/>
       <c r="H55" s="51">
         <v>1302490</v>
       </c>
@@ -9717,12 +9798,12 @@
       </c>
     </row>
     <row r="56" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="239"/>
-      <c r="C56" s="240"/>
-      <c r="D56" s="240"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="240"/>
-      <c r="G56" s="241"/>
+      <c r="B56" s="256"/>
+      <c r="C56" s="257"/>
+      <c r="D56" s="257"/>
+      <c r="E56" s="257"/>
+      <c r="F56" s="257"/>
+      <c r="G56" s="258"/>
       <c r="H56" s="51"/>
       <c r="I56" s="48"/>
       <c r="J56" s="49"/>
@@ -9731,20 +9812,20 @@
       <c r="M56" s="50"/>
     </row>
     <row r="57" spans="2:18" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="229" t="s">
+      <c r="B57" s="246" t="s">
         <v>604</v>
       </c>
-      <c r="C57" s="230"/>
-      <c r="D57" s="230"/>
-      <c r="E57" s="230"/>
-      <c r="F57" s="230"/>
-      <c r="G57" s="230"/>
-      <c r="H57" s="230"/>
-      <c r="I57" s="230"/>
-      <c r="J57" s="230"/>
-      <c r="K57" s="230"/>
-      <c r="L57" s="230"/>
-      <c r="M57" s="231"/>
+      <c r="C57" s="247"/>
+      <c r="D57" s="247"/>
+      <c r="E57" s="247"/>
+      <c r="F57" s="247"/>
+      <c r="G57" s="247"/>
+      <c r="H57" s="247"/>
+      <c r="I57" s="247"/>
+      <c r="J57" s="247"/>
+      <c r="K57" s="247"/>
+      <c r="L57" s="247"/>
+      <c r="M57" s="248"/>
     </row>
     <row r="58" spans="2:18" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F58" s="13"/>
@@ -9878,75 +9959,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="57" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="281" t="s">
+      <c r="B1" s="298" t="s">
         <v>596</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="281"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="298"/>
+      <c r="E1" s="298"/>
+      <c r="F1" s="298"/>
+      <c r="G1" s="298"/>
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="298"/>
+      <c r="M1" s="298"/>
+      <c r="N1" s="298"/>
     </row>
     <row r="2" spans="2:14" s="58" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="273" t="s">
+      <c r="B2" s="290" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="275"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="292"/>
       <c r="H2" s="53"/>
-      <c r="I2" s="273" t="s">
+      <c r="I2" s="290" t="s">
         <v>391</v>
       </c>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="275"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="291"/>
+      <c r="N2" s="292"/>
     </row>
     <row r="3" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="263" t="s">
+      <c r="B3" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="270" t="s">
+      <c r="D3" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="E3" s="271"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="261" t="s">
+      <c r="E3" s="288"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="278" t="s">
         <v>393</v>
       </c>
       <c r="H3" s="52"/>
-      <c r="I3" s="263" t="s">
+      <c r="I3" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="J3" s="268" t="s">
+      <c r="J3" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="K3" s="270" t="s">
+      <c r="K3" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="M3" s="272"/>
-      <c r="N3" s="261" t="s">
+      <c r="L3" s="288"/>
+      <c r="M3" s="289"/>
+      <c r="N3" s="278" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="4" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="264"/>
-      <c r="C4" s="269"/>
+      <c r="B4" s="281"/>
+      <c r="C4" s="286"/>
       <c r="D4" s="81" t="s">
         <v>394</v>
       </c>
@@ -9956,10 +10037,10 @@
       <c r="F4" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="G4" s="262"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="269"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="286"/>
       <c r="K4" s="81" t="s">
         <v>394</v>
       </c>
@@ -9969,7 +10050,7 @@
       <c r="M4" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="N4" s="262"/>
+      <c r="N4" s="279"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="78">
@@ -10217,10 +10298,10 @@
       </c>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="259" t="s">
+      <c r="B10" s="276" t="s">
         <v>388</v>
       </c>
-      <c r="C10" s="260"/>
+      <c r="C10" s="277"/>
       <c r="D10" s="82">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -10235,10 +10316,10 @@
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="37"/>
-      <c r="I10" s="259" t="s">
+      <c r="I10" s="276" t="s">
         <v>388</v>
       </c>
-      <c r="J10" s="260"/>
+      <c r="J10" s="277"/>
       <c r="K10" s="82">
         <f>SUM(K5:K9)</f>
         <v>14</v>
@@ -10268,58 +10349,58 @@
       <c r="N11" s="38"/>
     </row>
     <row r="12" spans="2:14" s="58" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="282" t="s">
         <v>396</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="266"/>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="267"/>
+      <c r="C12" s="283"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="283"/>
+      <c r="G12" s="284"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="265" t="s">
+      <c r="I12" s="282" t="s">
         <v>397</v>
       </c>
-      <c r="J12" s="266"/>
-      <c r="K12" s="266"/>
-      <c r="L12" s="266"/>
-      <c r="M12" s="266"/>
-      <c r="N12" s="267"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="284"/>
     </row>
     <row r="13" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="263" t="s">
+      <c r="B13" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="C13" s="268" t="s">
+      <c r="C13" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="D13" s="270" t="s">
+      <c r="D13" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="E13" s="271"/>
-      <c r="F13" s="272"/>
-      <c r="G13" s="261" t="s">
+      <c r="E13" s="288"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="278" t="s">
         <v>393</v>
       </c>
       <c r="H13" s="85"/>
-      <c r="I13" s="263" t="s">
+      <c r="I13" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="J13" s="268" t="s">
+      <c r="J13" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="K13" s="270" t="s">
+      <c r="K13" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="L13" s="271"/>
-      <c r="M13" s="272"/>
-      <c r="N13" s="261" t="s">
+      <c r="L13" s="288"/>
+      <c r="M13" s="289"/>
+      <c r="N13" s="278" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="14" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="264"/>
-      <c r="C14" s="269"/>
+      <c r="B14" s="281"/>
+      <c r="C14" s="286"/>
       <c r="D14" s="81" t="s">
         <v>394</v>
       </c>
@@ -10329,10 +10410,10 @@
       <c r="F14" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="G14" s="262"/>
+      <c r="G14" s="279"/>
       <c r="H14" s="85"/>
-      <c r="I14" s="264"/>
-      <c r="J14" s="269"/>
+      <c r="I14" s="281"/>
+      <c r="J14" s="286"/>
       <c r="K14" s="81" t="s">
         <v>394</v>
       </c>
@@ -10342,7 +10423,7 @@
       <c r="M14" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="N14" s="262"/>
+      <c r="N14" s="279"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="86">
@@ -10634,10 +10715,10 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="259" t="s">
+      <c r="B21" s="276" t="s">
         <v>405</v>
       </c>
-      <c r="C21" s="260"/>
+      <c r="C21" s="277"/>
       <c r="D21" s="82">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -10652,10 +10733,10 @@
       </c>
       <c r="G21" s="83"/>
       <c r="H21" s="91"/>
-      <c r="I21" s="259" t="s">
+      <c r="I21" s="276" t="s">
         <v>405</v>
       </c>
-      <c r="J21" s="260"/>
+      <c r="J21" s="277"/>
       <c r="K21" s="82">
         <f>SUM(K15:K20)</f>
         <v>14</v>
@@ -10686,58 +10767,58 @@
       <c r="N22" s="92"/>
     </row>
     <row r="23" spans="2:14" s="58" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="265" t="s">
+      <c r="B23" s="282" t="s">
         <v>398</v>
       </c>
-      <c r="C23" s="266"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="266"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="267"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="283"/>
+      <c r="G23" s="284"/>
       <c r="H23" s="84"/>
-      <c r="I23" s="265" t="s">
+      <c r="I23" s="282" t="s">
         <v>399</v>
       </c>
-      <c r="J23" s="266"/>
-      <c r="K23" s="266"/>
-      <c r="L23" s="266"/>
-      <c r="M23" s="266"/>
-      <c r="N23" s="267"/>
+      <c r="J23" s="283"/>
+      <c r="K23" s="283"/>
+      <c r="L23" s="283"/>
+      <c r="M23" s="283"/>
+      <c r="N23" s="284"/>
     </row>
     <row r="24" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="263" t="s">
+      <c r="B24" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="C24" s="268" t="s">
+      <c r="C24" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="D24" s="270" t="s">
+      <c r="D24" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="E24" s="271"/>
-      <c r="F24" s="272"/>
-      <c r="G24" s="261" t="s">
+      <c r="E24" s="288"/>
+      <c r="F24" s="289"/>
+      <c r="G24" s="278" t="s">
         <v>393</v>
       </c>
       <c r="H24" s="85"/>
-      <c r="I24" s="263" t="s">
+      <c r="I24" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="J24" s="268" t="s">
+      <c r="J24" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="K24" s="270" t="s">
+      <c r="K24" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="L24" s="271"/>
-      <c r="M24" s="272"/>
-      <c r="N24" s="261" t="s">
+      <c r="L24" s="288"/>
+      <c r="M24" s="289"/>
+      <c r="N24" s="278" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="25" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="264"/>
-      <c r="C25" s="269"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="286"/>
       <c r="D25" s="81" t="s">
         <v>394</v>
       </c>
@@ -10747,10 +10828,10 @@
       <c r="F25" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="G25" s="262"/>
+      <c r="G25" s="279"/>
       <c r="H25" s="85"/>
-      <c r="I25" s="264"/>
-      <c r="J25" s="269"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="286"/>
       <c r="K25" s="81" t="s">
         <v>394</v>
       </c>
@@ -10760,7 +10841,7 @@
       <c r="M25" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="N25" s="262"/>
+      <c r="N25" s="279"/>
     </row>
     <row r="26" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="86">
@@ -11047,10 +11128,10 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="259" t="s">
+      <c r="B32" s="276" t="s">
         <v>405</v>
       </c>
-      <c r="C32" s="260"/>
+      <c r="C32" s="277"/>
       <c r="D32" s="82">
         <f>SUM(D26:D31)</f>
         <v>16</v>
@@ -11065,10 +11146,10 @@
       </c>
       <c r="G32" s="83"/>
       <c r="H32" s="93"/>
-      <c r="I32" s="259" t="s">
+      <c r="I32" s="276" t="s">
         <v>405</v>
       </c>
-      <c r="J32" s="260"/>
+      <c r="J32" s="277"/>
       <c r="K32" s="82">
         <f t="shared" ref="K32:L32" si="1">SUM(K26:K31)</f>
         <v>17</v>
@@ -11148,58 +11229,58 @@
       <c r="N35" s="101"/>
     </row>
     <row r="36" spans="2:14" s="58" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="265" t="s">
+      <c r="B36" s="282" t="s">
         <v>404</v>
       </c>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="266"/>
-      <c r="G36" s="267"/>
+      <c r="C36" s="283"/>
+      <c r="D36" s="283"/>
+      <c r="E36" s="283"/>
+      <c r="F36" s="283"/>
+      <c r="G36" s="284"/>
       <c r="H36" s="84"/>
-      <c r="I36" s="265" t="s">
+      <c r="I36" s="282" t="s">
         <v>402</v>
       </c>
-      <c r="J36" s="266"/>
-      <c r="K36" s="266"/>
-      <c r="L36" s="266"/>
-      <c r="M36" s="266"/>
-      <c r="N36" s="267"/>
+      <c r="J36" s="283"/>
+      <c r="K36" s="283"/>
+      <c r="L36" s="283"/>
+      <c r="M36" s="283"/>
+      <c r="N36" s="284"/>
     </row>
     <row r="37" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="C37" s="268" t="s">
+      <c r="C37" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="D37" s="270" t="s">
+      <c r="D37" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="E37" s="271"/>
-      <c r="F37" s="272"/>
-      <c r="G37" s="261" t="s">
+      <c r="E37" s="288"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="278" t="s">
         <v>393</v>
       </c>
       <c r="H37" s="85"/>
-      <c r="I37" s="263" t="s">
+      <c r="I37" s="280" t="s">
         <v>382</v>
       </c>
-      <c r="J37" s="268" t="s">
+      <c r="J37" s="285" t="s">
         <v>383</v>
       </c>
-      <c r="K37" s="270" t="s">
+      <c r="K37" s="287" t="s">
         <v>392</v>
       </c>
-      <c r="L37" s="271"/>
-      <c r="M37" s="272"/>
-      <c r="N37" s="261" t="s">
+      <c r="L37" s="288"/>
+      <c r="M37" s="289"/>
+      <c r="N37" s="278" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="38" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="264"/>
-      <c r="C38" s="269"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="286"/>
       <c r="D38" s="81" t="s">
         <v>394</v>
       </c>
@@ -11209,10 +11290,10 @@
       <c r="F38" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="G38" s="262"/>
+      <c r="G38" s="279"/>
       <c r="H38" s="85"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="269"/>
+      <c r="I38" s="281"/>
+      <c r="J38" s="286"/>
       <c r="K38" s="81" t="s">
         <v>394</v>
       </c>
@@ -11222,7 +11303,7 @@
       <c r="M38" s="81" t="s">
         <v>388</v>
       </c>
-      <c r="N38" s="262"/>
+      <c r="N38" s="279"/>
     </row>
     <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="86">
@@ -11435,22 +11516,22 @@
         <v>0</v>
       </c>
       <c r="H43" s="90"/>
-      <c r="I43" s="253" t="s">
-        <v>0</v>
-      </c>
-      <c r="J43" s="255" t="s">
+      <c r="I43" s="270" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="272" t="s">
         <v>400</v>
       </c>
-      <c r="K43" s="257">
-        <v>3</v>
-      </c>
-      <c r="L43" s="257">
-        <v>0</v>
-      </c>
-      <c r="M43" s="257">
-        <v>3</v>
-      </c>
-      <c r="N43" s="251" t="s">
+      <c r="K43" s="274">
+        <v>3</v>
+      </c>
+      <c r="L43" s="274">
+        <v>0</v>
+      </c>
+      <c r="M43" s="274">
+        <v>3</v>
+      </c>
+      <c r="N43" s="268" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11474,18 +11555,18 @@
         <v>0</v>
       </c>
       <c r="H44" s="90"/>
-      <c r="I44" s="254"/>
-      <c r="J44" s="256"/>
-      <c r="K44" s="258"/>
-      <c r="L44" s="258"/>
-      <c r="M44" s="258"/>
-      <c r="N44" s="252"/>
+      <c r="I44" s="271"/>
+      <c r="J44" s="273"/>
+      <c r="K44" s="275"/>
+      <c r="L44" s="275"/>
+      <c r="M44" s="275"/>
+      <c r="N44" s="269"/>
     </row>
     <row r="45" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="259" t="s">
+      <c r="B45" s="276" t="s">
         <v>388</v>
       </c>
-      <c r="C45" s="260"/>
+      <c r="C45" s="277"/>
       <c r="D45" s="82">
         <f t="shared" ref="D45:E45" si="2">SUM(D39:D44)</f>
         <v>14</v>
@@ -11500,10 +11581,10 @@
       </c>
       <c r="G45" s="83"/>
       <c r="H45" s="91"/>
-      <c r="I45" s="259" t="s">
+      <c r="I45" s="276" t="s">
         <v>388</v>
       </c>
-      <c r="J45" s="260"/>
+      <c r="J45" s="277"/>
       <c r="K45" s="82">
         <f>SUM(K39:K43)</f>
         <v>12</v>
@@ -11526,34 +11607,34 @@
       <c r="F46" s="94"/>
       <c r="G46" s="102"/>
       <c r="H46" s="90"/>
-      <c r="I46" s="280"/>
-      <c r="J46" s="280"/>
-      <c r="K46" s="280"/>
+      <c r="I46" s="297"/>
+      <c r="J46" s="297"/>
+      <c r="K46" s="297"/>
       <c r="L46" s="102"/>
       <c r="M46" s="102"/>
       <c r="N46" s="102"/>
     </row>
     <row r="47" spans="2:14" s="56" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="276" t="s">
+      <c r="B47" s="293" t="s">
         <v>421</v>
       </c>
-      <c r="C47" s="277"/>
-      <c r="D47" s="277"/>
-      <c r="E47" s="277"/>
-      <c r="F47" s="277"/>
-      <c r="G47" s="277"/>
-      <c r="H47" s="278">
+      <c r="C47" s="294"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="294"/>
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="295">
         <f>F10+M10+F21+M21+F32+M32+F34+F45+M45</f>
         <v>132</v>
       </c>
-      <c r="I47" s="278"/>
-      <c r="J47" s="278" t="s">
+      <c r="I47" s="295"/>
+      <c r="J47" s="295" t="s">
         <v>605</v>
       </c>
-      <c r="K47" s="278"/>
-      <c r="L47" s="278"/>
-      <c r="M47" s="278"/>
-      <c r="N47" s="279"/>
+      <c r="K47" s="295"/>
+      <c r="L47" s="295"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="296"/>
     </row>
     <row r="48" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -11636,8 +11717,8 @@
   </sheetPr>
   <dimension ref="B1:R47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11656,95 +11737,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" s="54" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="282" t="s">
+      <c r="B1" s="299" t="s">
         <v>579</v>
       </c>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="282"/>
-      <c r="O1" s="282"/>
-      <c r="P1" s="282"/>
+      <c r="C1" s="299"/>
+      <c r="D1" s="299"/>
+      <c r="E1" s="299"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="299"/>
+      <c r="H1" s="299"/>
+      <c r="I1" s="299"/>
+      <c r="J1" s="299"/>
+      <c r="K1" s="299"/>
+      <c r="L1" s="299"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
       <c r="Q1" s="139"/>
       <c r="R1" s="139"/>
     </row>
     <row r="2" spans="2:18" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="283" t="s">
+      <c r="B2" s="300" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="304" t="s">
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="142" t="s">
         <v>635</v>
       </c>
-      <c r="I2" s="305" t="s">
+      <c r="I2" s="143" t="s">
         <v>607</v>
       </c>
       <c r="J2" s="118"/>
-      <c r="K2" s="284" t="s">
+      <c r="K2" s="301" t="s">
         <v>445</v>
       </c>
-      <c r="L2" s="283"/>
-      <c r="M2" s="283"/>
-      <c r="N2" s="283"/>
-      <c r="O2" s="283"/>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="305"/>
+      <c r="L2" s="300"/>
+      <c r="M2" s="300"/>
+      <c r="N2" s="300"/>
+      <c r="O2" s="300"/>
+      <c r="P2" s="300"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="143"/>
     </row>
     <row r="3" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="C3" s="287" t="s">
+      <c r="C3" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="D3" s="289" t="s">
+      <c r="D3" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="290" t="s">
+      <c r="E3" s="306"/>
+      <c r="F3" s="306"/>
+      <c r="G3" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="H3" s="306" t="s">
+      <c r="H3" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="I3" s="307"/>
+      <c r="I3" s="317"/>
       <c r="J3" s="119"/>
-      <c r="K3" s="285" t="s">
+      <c r="K3" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="L3" s="287" t="s">
+      <c r="L3" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="M3" s="289" t="s">
+      <c r="M3" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="289"/>
-      <c r="O3" s="289"/>
-      <c r="P3" s="290" t="s">
+      <c r="N3" s="306"/>
+      <c r="O3" s="306"/>
+      <c r="P3" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="Q3" s="306" t="s">
+      <c r="Q3" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="R3" s="307"/>
+      <c r="R3" s="317"/>
     </row>
     <row r="4" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="286"/>
-      <c r="C4" s="288"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="305"/>
       <c r="D4" s="81" t="s">
         <v>2</v>
       </c>
@@ -11754,16 +11835,16 @@
       <c r="F4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="291"/>
-      <c r="H4" s="308" t="s">
+      <c r="G4" s="308"/>
+      <c r="H4" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="I4" s="308" t="s">
+      <c r="I4" s="144" t="s">
         <v>610</v>
       </c>
       <c r="J4" s="119"/>
-      <c r="K4" s="286"/>
-      <c r="L4" s="288"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="305"/>
       <c r="M4" s="81" t="s">
         <v>2</v>
       </c>
@@ -11773,11 +11854,11 @@
       <c r="O4" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="308" t="s">
+      <c r="P4" s="308"/>
+      <c r="Q4" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="R4" s="308" t="s">
+      <c r="R4" s="144" t="s">
         <v>610</v>
       </c>
     </row>
@@ -11805,8 +11886,8 @@
         <f>VLOOKUP($B5,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H5" s="309"/>
-      <c r="I5" s="310"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="90"/>
       <c r="K5" s="86">
         <v>1301108</v>
@@ -11831,8 +11912,8 @@
         <f>VLOOKUP($K5,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301106</v>
       </c>
-      <c r="Q5" s="309"/>
-      <c r="R5" s="310"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="146"/>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="86">
@@ -11858,8 +11939,8 @@
         <f>VLOOKUP($B6,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H6" s="311"/>
-      <c r="I6" s="312"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="148"/>
       <c r="J6" s="90"/>
       <c r="K6" s="86">
         <v>1301120</v>
@@ -11884,8 +11965,8 @@
         <f>VLOOKUP($K6,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301111</v>
       </c>
-      <c r="Q6" s="311"/>
-      <c r="R6" s="312"/>
+      <c r="Q6" s="147"/>
+      <c r="R6" s="148"/>
     </row>
     <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="86">
@@ -11911,8 +11992,8 @@
         <f>VLOOKUP($B7,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H7" s="313"/>
-      <c r="I7" s="312"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="148"/>
       <c r="J7" s="90"/>
       <c r="K7" s="86">
         <v>1301270</v>
@@ -11937,8 +12018,8 @@
         <f>VLOOKUP($K7,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1501110</v>
       </c>
-      <c r="Q7" s="313"/>
-      <c r="R7" s="312"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="148"/>
     </row>
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="86">
@@ -11964,8 +12045,8 @@
         <f>VLOOKUP($B8,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401098</v>
       </c>
-      <c r="H8" s="311"/>
-      <c r="I8" s="312"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="148"/>
       <c r="J8" s="90"/>
       <c r="K8" s="86">
         <v>1401151</v>
@@ -11990,8 +12071,8 @@
         <f>VLOOKUP($K8,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="Q8" s="311"/>
-      <c r="R8" s="312"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="148"/>
     </row>
     <row r="9" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="86">
@@ -12017,8 +12098,8 @@
         <f>VLOOKUP($B9,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="H9" s="314"/>
-      <c r="I9" s="315"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="151"/>
       <c r="J9" s="90"/>
       <c r="K9" s="86">
         <v>1501212</v>
@@ -12043,14 +12124,14 @@
         <f>VLOOKUP($K9,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1501110</v>
       </c>
-      <c r="Q9" s="314"/>
-      <c r="R9" s="315"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="151"/>
     </row>
     <row r="10" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="292" t="s">
+      <c r="B10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="293"/>
+      <c r="C10" s="310"/>
       <c r="D10" s="82">
         <f>SUM(D5:D9)</f>
         <v>14</v>
@@ -12064,13 +12145,13 @@
         <v>15</v>
       </c>
       <c r="G10" s="121"/>
-      <c r="H10" s="316"/>
-      <c r="I10" s="317"/>
+      <c r="H10" s="311"/>
+      <c r="I10" s="312"/>
       <c r="J10" s="122"/>
-      <c r="K10" s="292" t="s">
+      <c r="K10" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="293"/>
+      <c r="L10" s="310"/>
       <c r="M10" s="82">
         <f>SUM(M5:M9)</f>
         <v>14</v>
@@ -12084,8 +12165,8 @@
         <v>15</v>
       </c>
       <c r="P10" s="121"/>
-      <c r="Q10" s="316"/>
-      <c r="R10" s="317"/>
+      <c r="Q10" s="311"/>
+      <c r="R10" s="312"/>
     </row>
     <row r="11" spans="2:18" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="92"/>
@@ -12107,70 +12188,70 @@
       <c r="R11" s="125"/>
     </row>
     <row r="12" spans="2:18" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="284" t="s">
+      <c r="B12" s="301" t="s">
         <v>446</v>
       </c>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="283"/>
-      <c r="H12" s="304"/>
-      <c r="I12" s="305"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="143"/>
       <c r="J12" s="126"/>
-      <c r="K12" s="283" t="s">
+      <c r="K12" s="300" t="s">
         <v>447</v>
       </c>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="283"/>
-      <c r="O12" s="283"/>
-      <c r="P12" s="283"/>
-      <c r="Q12" s="304"/>
-      <c r="R12" s="305"/>
+      <c r="L12" s="300"/>
+      <c r="M12" s="300"/>
+      <c r="N12" s="300"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="300"/>
+      <c r="Q12" s="142"/>
+      <c r="R12" s="143"/>
     </row>
     <row r="13" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="285" t="s">
+      <c r="B13" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="C13" s="287" t="s">
+      <c r="C13" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="D13" s="289" t="s">
+      <c r="D13" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="290" t="s">
+      <c r="E13" s="306"/>
+      <c r="F13" s="306"/>
+      <c r="G13" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="H13" s="306" t="s">
+      <c r="H13" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="I13" s="307"/>
+      <c r="I13" s="317"/>
       <c r="J13" s="85"/>
-      <c r="K13" s="285" t="s">
+      <c r="K13" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="L13" s="287" t="s">
+      <c r="L13" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="M13" s="289" t="s">
+      <c r="M13" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="N13" s="289"/>
-      <c r="O13" s="289"/>
-      <c r="P13" s="290" t="s">
+      <c r="N13" s="306"/>
+      <c r="O13" s="306"/>
+      <c r="P13" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="Q13" s="306" t="s">
+      <c r="Q13" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="R13" s="307"/>
+      <c r="R13" s="317"/>
     </row>
     <row r="14" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="286"/>
-      <c r="C14" s="288"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="305"/>
       <c r="D14" s="81" t="s">
         <v>2</v>
       </c>
@@ -12180,16 +12261,16 @@
       <c r="F14" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="291"/>
-      <c r="H14" s="308" t="s">
+      <c r="G14" s="308"/>
+      <c r="H14" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="I14" s="308" t="s">
+      <c r="I14" s="144" t="s">
         <v>610</v>
       </c>
       <c r="J14" s="85"/>
-      <c r="K14" s="286"/>
-      <c r="L14" s="288"/>
+      <c r="K14" s="303"/>
+      <c r="L14" s="305"/>
       <c r="M14" s="81" t="s">
         <v>2</v>
       </c>
@@ -12199,11 +12280,11 @@
       <c r="O14" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="291"/>
-      <c r="Q14" s="308" t="s">
+      <c r="P14" s="308"/>
+      <c r="Q14" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="R14" s="308" t="s">
+      <c r="R14" s="144" t="s">
         <v>610</v>
       </c>
     </row>
@@ -12231,8 +12312,8 @@
         <f>VLOOKUP($B15,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1501110</v>
       </c>
-      <c r="H15" s="309"/>
-      <c r="I15" s="310"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="146"/>
       <c r="J15" s="90"/>
       <c r="K15" s="86">
         <v>1301208</v>
@@ -12257,8 +12338,8 @@
         <f>VLOOKUP($K15,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301108</v>
       </c>
-      <c r="Q15" s="309"/>
-      <c r="R15" s="310"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="146"/>
     </row>
     <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="86">
@@ -12284,8 +12365,8 @@
         <f>VLOOKUP($B16,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301108 + 1301111</v>
       </c>
-      <c r="H16" s="311"/>
-      <c r="I16" s="312"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="148"/>
       <c r="J16" s="90"/>
       <c r="K16" s="86">
         <v>1301222</v>
@@ -12310,8 +12391,8 @@
         <f>VLOOKUP($K16,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301120</v>
       </c>
-      <c r="Q16" s="311"/>
-      <c r="R16" s="312"/>
+      <c r="Q16" s="147"/>
+      <c r="R16" s="148"/>
     </row>
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="86">
@@ -12337,8 +12418,8 @@
         <f>VLOOKUP($B17,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401120</v>
       </c>
-      <c r="H17" s="313"/>
-      <c r="I17" s="312"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="148"/>
       <c r="J17" s="90"/>
       <c r="K17" s="86">
         <v>1301236</v>
@@ -12363,8 +12444,8 @@
         <f>VLOOKUP($K17,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301108</v>
       </c>
-      <c r="Q17" s="313"/>
-      <c r="R17" s="312"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="148"/>
     </row>
     <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="86">
@@ -12390,8 +12471,8 @@
         <f>VLOOKUP($B18,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301108</v>
       </c>
-      <c r="H18" s="311"/>
-      <c r="I18" s="312"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="J18" s="90"/>
       <c r="K18" s="86">
         <v>1302382</v>
@@ -12416,8 +12497,8 @@
         <f>VLOOKUP($K18,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302281</v>
       </c>
-      <c r="Q18" s="311"/>
-      <c r="R18" s="312"/>
+      <c r="Q18" s="147"/>
+      <c r="R18" s="148"/>
     </row>
     <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="86">
@@ -12443,8 +12524,8 @@
         <f>VLOOKUP($B19,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1401099</v>
       </c>
-      <c r="H19" s="311"/>
-      <c r="I19" s="312"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="148"/>
       <c r="J19" s="90"/>
       <c r="K19" s="86">
         <v>1302383</v>
@@ -12469,8 +12550,8 @@
         <f>VLOOKUP($K19,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302281</v>
       </c>
-      <c r="Q19" s="311"/>
-      <c r="R19" s="312"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="148"/>
     </row>
     <row r="20" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="86" t="s">
@@ -12491,8 +12572,8 @@
       <c r="G20" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="324"/>
-      <c r="I20" s="312"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="148"/>
       <c r="J20" s="90"/>
       <c r="K20" s="86">
         <v>1302452</v>
@@ -12517,14 +12598,14 @@
         <f>VLOOKUP($K20,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302281</v>
       </c>
-      <c r="Q20" s="311"/>
-      <c r="R20" s="312"/>
+      <c r="Q20" s="147"/>
+      <c r="R20" s="148"/>
     </row>
     <row r="21" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="292" t="s">
+      <c r="B21" s="309" t="s">
         <v>578</v>
       </c>
-      <c r="C21" s="293"/>
+      <c r="C21" s="310"/>
       <c r="D21" s="82">
         <f>SUM(D15:D20)</f>
         <v>17</v>
@@ -12538,13 +12619,13 @@
         <v>18</v>
       </c>
       <c r="G21" s="121"/>
-      <c r="H21" s="322"/>
-      <c r="I21" s="323"/>
+      <c r="H21" s="318"/>
+      <c r="I21" s="319"/>
       <c r="J21" s="91"/>
-      <c r="K21" s="292" t="s">
+      <c r="K21" s="309" t="s">
         <v>578</v>
       </c>
-      <c r="L21" s="293"/>
+      <c r="L21" s="310"/>
       <c r="M21" s="82">
         <f>SUM(M15:M20)</f>
         <v>14</v>
@@ -12558,8 +12639,8 @@
         <v>18</v>
       </c>
       <c r="P21" s="121"/>
-      <c r="Q21" s="316"/>
-      <c r="R21" s="317"/>
+      <c r="Q21" s="311"/>
+      <c r="R21" s="312"/>
     </row>
     <row r="22" spans="2:18" s="31" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="92"/>
@@ -12581,70 +12662,70 @@
       <c r="R22" s="125"/>
     </row>
     <row r="23" spans="2:18" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="283" t="s">
+      <c r="B23" s="300" t="s">
         <v>449</v>
       </c>
-      <c r="C23" s="283"/>
-      <c r="D23" s="283"/>
-      <c r="E23" s="283"/>
-      <c r="F23" s="283"/>
-      <c r="G23" s="283"/>
-      <c r="H23" s="304"/>
-      <c r="I23" s="305"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="300"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="143"/>
       <c r="J23" s="84"/>
-      <c r="K23" s="283" t="s">
+      <c r="K23" s="300" t="s">
         <v>450</v>
       </c>
-      <c r="L23" s="283"/>
-      <c r="M23" s="283"/>
-      <c r="N23" s="283"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="283"/>
-      <c r="Q23" s="304"/>
-      <c r="R23" s="305"/>
+      <c r="L23" s="300"/>
+      <c r="M23" s="300"/>
+      <c r="N23" s="300"/>
+      <c r="O23" s="300"/>
+      <c r="P23" s="300"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="143"/>
     </row>
     <row r="24" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="285" t="s">
+      <c r="B24" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="C24" s="287" t="s">
+      <c r="C24" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="D24" s="289" t="s">
+      <c r="D24" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="289"/>
-      <c r="F24" s="289"/>
-      <c r="G24" s="290" t="s">
+      <c r="E24" s="306"/>
+      <c r="F24" s="306"/>
+      <c r="G24" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="H24" s="306" t="s">
+      <c r="H24" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="I24" s="307"/>
+      <c r="I24" s="317"/>
       <c r="J24" s="85"/>
-      <c r="K24" s="285" t="s">
+      <c r="K24" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="L24" s="287" t="s">
+      <c r="L24" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="M24" s="289" t="s">
+      <c r="M24" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="N24" s="289"/>
-      <c r="O24" s="289"/>
-      <c r="P24" s="290" t="s">
+      <c r="N24" s="306"/>
+      <c r="O24" s="306"/>
+      <c r="P24" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="Q24" s="306" t="s">
+      <c r="Q24" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="R24" s="307"/>
+      <c r="R24" s="317"/>
     </row>
     <row r="25" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="286"/>
-      <c r="C25" s="288"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="305"/>
       <c r="D25" s="81" t="s">
         <v>2</v>
       </c>
@@ -12654,16 +12735,16 @@
       <c r="F25" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="291"/>
-      <c r="H25" s="308" t="s">
+      <c r="G25" s="308"/>
+      <c r="H25" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="I25" s="308" t="s">
+      <c r="I25" s="144" t="s">
         <v>610</v>
       </c>
       <c r="J25" s="85"/>
-      <c r="K25" s="286"/>
-      <c r="L25" s="288"/>
+      <c r="K25" s="303"/>
+      <c r="L25" s="305"/>
       <c r="M25" s="81" t="s">
         <v>2</v>
       </c>
@@ -12673,11 +12754,11 @@
       <c r="O25" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="291"/>
-      <c r="Q25" s="308" t="s">
+      <c r="P25" s="308"/>
+      <c r="Q25" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="R25" s="308" t="s">
+      <c r="R25" s="144" t="s">
         <v>610</v>
       </c>
     </row>
@@ -12705,8 +12786,8 @@
         <f>VLOOKUP($B26,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301203</v>
       </c>
-      <c r="H26" s="309"/>
-      <c r="I26" s="310"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="146"/>
       <c r="J26" s="90"/>
       <c r="K26" s="86">
         <v>1301304</v>
@@ -12731,8 +12812,8 @@
         <f>VLOOKUP($K26,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301305</v>
       </c>
-      <c r="Q26" s="309"/>
-      <c r="R26" s="310"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="146"/>
     </row>
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="86">
@@ -12758,8 +12839,8 @@
         <f>VLOOKUP($B27,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301203</v>
       </c>
-      <c r="H27" s="311"/>
-      <c r="I27" s="312"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="148"/>
       <c r="J27" s="90"/>
       <c r="K27" s="86">
         <v>1301336</v>
@@ -12784,8 +12865,8 @@
         <f>VLOOKUP($K27,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301326</v>
       </c>
-      <c r="Q27" s="311"/>
-      <c r="R27" s="312"/>
+      <c r="Q27" s="147"/>
+      <c r="R27" s="148"/>
     </row>
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="86">
@@ -12811,8 +12892,8 @@
         <f>VLOOKUP($B28,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301203</v>
       </c>
-      <c r="H28" s="313"/>
-      <c r="I28" s="312"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="148"/>
       <c r="J28" s="90"/>
       <c r="K28" s="86">
         <v>1302360</v>
@@ -12837,8 +12918,8 @@
         <f>VLOOKUP($K28,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1301305</v>
       </c>
-      <c r="Q28" s="313"/>
-      <c r="R28" s="312"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="148"/>
     </row>
     <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="86">
@@ -12864,8 +12945,8 @@
         <f>VLOOKUP($B29,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302382 + 1301305 ↂ</v>
       </c>
-      <c r="H29" s="311"/>
-      <c r="I29" s="312"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="148"/>
       <c r="J29" s="90"/>
       <c r="K29" s="86">
         <v>1302481</v>
@@ -12890,8 +12971,8 @@
         <f>VLOOKUP($K29,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302384</v>
       </c>
-      <c r="Q29" s="311"/>
-      <c r="R29" s="312"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="148"/>
     </row>
     <row r="30" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="86" t="s">
@@ -12912,8 +12993,8 @@
       <c r="G30" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="H30" s="311"/>
-      <c r="I30" s="312"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="148"/>
       <c r="J30" s="90"/>
       <c r="K30" s="86">
         <v>1302486</v>
@@ -12938,8 +13019,8 @@
         <f>VLOOKUP($K30,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302384</v>
       </c>
-      <c r="Q30" s="311"/>
-      <c r="R30" s="312"/>
+      <c r="Q30" s="147"/>
+      <c r="R30" s="148"/>
     </row>
     <row r="31" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="86" t="s">
@@ -12960,8 +13041,8 @@
       <c r="G31" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="H31" s="318"/>
-      <c r="I31" s="312"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="148"/>
       <c r="J31" s="90"/>
       <c r="K31" s="86">
         <v>1302493</v>
@@ -12986,14 +13067,14 @@
         <f>VLOOKUP($K31,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302384</v>
       </c>
-      <c r="Q31" s="311"/>
-      <c r="R31" s="312"/>
+      <c r="Q31" s="147"/>
+      <c r="R31" s="148"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="292" t="s">
+      <c r="B32" s="309" t="s">
         <v>578</v>
       </c>
-      <c r="C32" s="293"/>
+      <c r="C32" s="310"/>
       <c r="D32" s="82">
         <f>SUM(D26:D31)</f>
         <v>16</v>
@@ -13007,13 +13088,13 @@
         <v>18</v>
       </c>
       <c r="G32" s="121"/>
-      <c r="H32" s="316"/>
-      <c r="I32" s="317"/>
+      <c r="H32" s="311"/>
+      <c r="I32" s="312"/>
       <c r="J32" s="127"/>
-      <c r="K32" s="292" t="s">
+      <c r="K32" s="309" t="s">
         <v>578</v>
       </c>
-      <c r="L32" s="293"/>
+      <c r="L32" s="310"/>
       <c r="M32" s="82">
         <f t="shared" ref="M32:N32" si="1">SUM(M26:M31)</f>
         <v>17</v>
@@ -13027,8 +13108,8 @@
         <v>18</v>
       </c>
       <c r="P32" s="121"/>
-      <c r="Q32" s="316"/>
-      <c r="R32" s="317"/>
+      <c r="Q32" s="311"/>
+      <c r="R32" s="312"/>
     </row>
     <row r="33" spans="2:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="90"/>
@@ -13084,8 +13165,8 @@
       <c r="N34" s="131"/>
       <c r="O34" s="131"/>
       <c r="P34" s="133"/>
-      <c r="Q34" s="303"/>
-      <c r="R34" s="303"/>
+      <c r="Q34" s="141"/>
+      <c r="R34" s="141"/>
     </row>
     <row r="35" spans="2:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="101"/>
@@ -13107,70 +13188,70 @@
       <c r="R35" s="90"/>
     </row>
     <row r="36" spans="2:18" s="55" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="283" t="s">
+      <c r="B36" s="300" t="s">
         <v>452</v>
       </c>
-      <c r="C36" s="283"/>
-      <c r="D36" s="283"/>
-      <c r="E36" s="283"/>
-      <c r="F36" s="283"/>
-      <c r="G36" s="283"/>
-      <c r="H36" s="304"/>
-      <c r="I36" s="305"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="300"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="143"/>
       <c r="J36" s="84"/>
-      <c r="K36" s="283" t="s">
+      <c r="K36" s="300" t="s">
         <v>453</v>
       </c>
-      <c r="L36" s="283"/>
-      <c r="M36" s="283"/>
-      <c r="N36" s="283"/>
-      <c r="O36" s="283"/>
-      <c r="P36" s="283"/>
-      <c r="Q36" s="304"/>
-      <c r="R36" s="305"/>
+      <c r="L36" s="300"/>
+      <c r="M36" s="300"/>
+      <c r="N36" s="300"/>
+      <c r="O36" s="300"/>
+      <c r="P36" s="300"/>
+      <c r="Q36" s="142"/>
+      <c r="R36" s="143"/>
     </row>
     <row r="37" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="285" t="s">
+      <c r="B37" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="C37" s="287" t="s">
+      <c r="C37" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="D37" s="289" t="s">
+      <c r="D37" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="289"/>
-      <c r="F37" s="289"/>
-      <c r="G37" s="290" t="s">
+      <c r="E37" s="306"/>
+      <c r="F37" s="306"/>
+      <c r="G37" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="H37" s="306" t="s">
+      <c r="H37" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="I37" s="307"/>
+      <c r="I37" s="317"/>
       <c r="J37" s="85"/>
-      <c r="K37" s="285" t="s">
+      <c r="K37" s="302" t="s">
         <v>570</v>
       </c>
-      <c r="L37" s="287" t="s">
+      <c r="L37" s="304" t="s">
         <v>576</v>
       </c>
-      <c r="M37" s="289" t="s">
+      <c r="M37" s="306" t="s">
         <v>1</v>
       </c>
-      <c r="N37" s="289"/>
-      <c r="O37" s="289"/>
-      <c r="P37" s="290" t="s">
+      <c r="N37" s="306"/>
+      <c r="O37" s="306"/>
+      <c r="P37" s="307" t="s">
         <v>577</v>
       </c>
-      <c r="Q37" s="306" t="s">
+      <c r="Q37" s="316" t="s">
         <v>608</v>
       </c>
-      <c r="R37" s="307"/>
+      <c r="R37" s="317"/>
     </row>
     <row r="38" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="286"/>
-      <c r="C38" s="288"/>
+      <c r="B38" s="303"/>
+      <c r="C38" s="305"/>
       <c r="D38" s="81" t="s">
         <v>2</v>
       </c>
@@ -13180,16 +13261,16 @@
       <c r="F38" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="291"/>
-      <c r="H38" s="308" t="s">
+      <c r="G38" s="308"/>
+      <c r="H38" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="I38" s="308" t="s">
+      <c r="I38" s="144" t="s">
         <v>610</v>
       </c>
       <c r="J38" s="85"/>
-      <c r="K38" s="286"/>
-      <c r="L38" s="288"/>
+      <c r="K38" s="303"/>
+      <c r="L38" s="305"/>
       <c r="M38" s="81" t="s">
         <v>2</v>
       </c>
@@ -13199,11 +13280,11 @@
       <c r="O38" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="291"/>
-      <c r="Q38" s="308" t="s">
+      <c r="P38" s="308"/>
+      <c r="Q38" s="144" t="s">
         <v>609</v>
       </c>
-      <c r="R38" s="308" t="s">
+      <c r="R38" s="144" t="s">
         <v>610</v>
       </c>
     </row>
@@ -13231,8 +13312,8 @@
         <f>VLOOKUP($B39,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302493</v>
       </c>
-      <c r="H39" s="309"/>
-      <c r="I39" s="310"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="146"/>
       <c r="J39" s="90"/>
       <c r="K39" s="86">
         <v>100100</v>
@@ -13257,8 +13338,8 @@
         <f>VLOOKUP($K39,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="Q39" s="309"/>
-      <c r="R39" s="310"/>
+      <c r="Q39" s="145"/>
+      <c r="R39" s="146"/>
     </row>
     <row r="40" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="86">
@@ -13284,8 +13365,8 @@
         <f>VLOOKUP($B40,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>Pass. 90 Cr. Hrs.+ 1302384</v>
       </c>
-      <c r="H40" s="311"/>
-      <c r="I40" s="312"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="148"/>
       <c r="J40" s="90"/>
       <c r="K40" s="86">
         <v>1302492</v>
@@ -13310,8 +13391,8 @@
         <f>VLOOKUP($K40,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302491</v>
       </c>
-      <c r="Q40" s="311"/>
-      <c r="R40" s="312"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="148"/>
     </row>
     <row r="41" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="86">
@@ -13337,8 +13418,8 @@
         <f>VLOOKUP($B41,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302384</v>
       </c>
-      <c r="H41" s="313"/>
-      <c r="I41" s="312"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="148"/>
       <c r="J41" s="90"/>
       <c r="K41" s="86">
         <v>1302495</v>
@@ -13363,8 +13444,8 @@
         <f>VLOOKUP($K41,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1302485 + 1302486</v>
       </c>
-      <c r="Q41" s="313"/>
-      <c r="R41" s="312"/>
+      <c r="Q41" s="149"/>
+      <c r="R41" s="148"/>
     </row>
     <row r="42" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="86">
@@ -13390,8 +13471,8 @@
         <f>VLOOKUP($B42,Crses!$A$2:$J$300,8,FALSE)</f>
         <v>1303236 + 1301305</v>
       </c>
-      <c r="H42" s="311"/>
-      <c r="I42" s="312"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="148"/>
       <c r="J42" s="90"/>
       <c r="K42" s="86" t="s">
         <v>0</v>
@@ -13411,8 +13492,8 @@
       <c r="P42" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="Q42" s="311"/>
-      <c r="R42" s="312"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="148"/>
     </row>
     <row r="43" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="86" t="s">
@@ -13433,29 +13514,29 @@
       <c r="G43" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="311"/>
-      <c r="I43" s="312"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="148"/>
       <c r="J43" s="90"/>
-      <c r="K43" s="294" t="s">
-        <v>0</v>
-      </c>
-      <c r="L43" s="295" t="s">
+      <c r="K43" s="320" t="s">
+        <v>0</v>
+      </c>
+      <c r="L43" s="321" t="s">
         <v>591</v>
       </c>
-      <c r="M43" s="297">
-        <v>3</v>
-      </c>
-      <c r="N43" s="297">
-        <v>0</v>
-      </c>
-      <c r="O43" s="297">
-        <v>3</v>
-      </c>
-      <c r="P43" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="311"/>
-      <c r="R43" s="312"/>
+      <c r="M43" s="323">
+        <v>3</v>
+      </c>
+      <c r="N43" s="323">
+        <v>0</v>
+      </c>
+      <c r="O43" s="323">
+        <v>3</v>
+      </c>
+      <c r="P43" s="324" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="147"/>
+      <c r="R43" s="148"/>
     </row>
     <row r="44" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="86" t="s">
@@ -13476,23 +13557,23 @@
       <c r="G44" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="H44" s="311"/>
-      <c r="I44" s="312"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="148"/>
       <c r="J44" s="90"/>
-      <c r="K44" s="294"/>
-      <c r="L44" s="296"/>
-      <c r="M44" s="297"/>
-      <c r="N44" s="297"/>
-      <c r="O44" s="297"/>
-      <c r="P44" s="298"/>
-      <c r="Q44" s="311"/>
-      <c r="R44" s="312"/>
+      <c r="K44" s="320"/>
+      <c r="L44" s="322"/>
+      <c r="M44" s="323"/>
+      <c r="N44" s="323"/>
+      <c r="O44" s="323"/>
+      <c r="P44" s="324"/>
+      <c r="Q44" s="147"/>
+      <c r="R44" s="148"/>
     </row>
     <row r="45" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="292" t="s">
+      <c r="B45" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="293"/>
+      <c r="C45" s="310"/>
       <c r="D45" s="82">
         <f t="shared" ref="D45:E45" si="2">SUM(D39:D44)</f>
         <v>14</v>
@@ -13506,13 +13587,13 @@
         <v>16</v>
       </c>
       <c r="G45" s="121"/>
-      <c r="H45" s="316"/>
-      <c r="I45" s="317"/>
+      <c r="H45" s="311"/>
+      <c r="I45" s="312"/>
       <c r="J45" s="122"/>
-      <c r="K45" s="292" t="s">
+      <c r="K45" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="293"/>
+      <c r="L45" s="310"/>
       <c r="M45" s="82">
         <f>SUM(M39:M43)</f>
         <v>12</v>
@@ -13526,8 +13607,8 @@
         <v>14</v>
       </c>
       <c r="P45" s="121"/>
-      <c r="Q45" s="316"/>
-      <c r="R45" s="317"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="312"/>
     </row>
     <row r="46" spans="2:18" s="32" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="135"/>
@@ -13539,9 +13620,9 @@
       <c r="H46" s="125"/>
       <c r="I46" s="125"/>
       <c r="J46" s="125"/>
-      <c r="K46" s="299"/>
-      <c r="L46" s="299"/>
-      <c r="M46" s="299"/>
+      <c r="K46" s="313"/>
+      <c r="L46" s="313"/>
+      <c r="M46" s="313"/>
       <c r="N46" s="136"/>
       <c r="O46" s="136"/>
       <c r="P46" s="136"/>
@@ -13549,32 +13630,32 @@
       <c r="R46" s="125"/>
     </row>
     <row r="47" spans="2:18" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="300" t="s">
+      <c r="B47" s="314" t="s">
         <v>454</v>
       </c>
-      <c r="C47" s="278"/>
-      <c r="D47" s="301" t="s">
+      <c r="C47" s="295"/>
+      <c r="D47" s="315" t="s">
         <v>581</v>
       </c>
-      <c r="E47" s="301"/>
-      <c r="F47" s="301"/>
-      <c r="G47" s="301"/>
+      <c r="E47" s="315"/>
+      <c r="F47" s="315"/>
+      <c r="G47" s="315"/>
       <c r="H47" s="138"/>
       <c r="I47" s="138"/>
-      <c r="J47" s="277">
+      <c r="J47" s="294">
         <f>F10+O10+F21+O21+F32+O32+F34+F45+O45</f>
         <v>132</v>
       </c>
-      <c r="K47" s="277"/>
-      <c r="L47" s="278" t="s">
+      <c r="K47" s="294"/>
+      <c r="L47" s="295" t="s">
         <v>605</v>
       </c>
-      <c r="M47" s="278"/>
-      <c r="N47" s="278"/>
-      <c r="O47" s="278"/>
-      <c r="P47" s="279"/>
-      <c r="Q47" s="302"/>
-      <c r="R47" s="302"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="295"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="296"/>
+      <c r="Q47" s="140"/>
+      <c r="R47" s="140"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B26:B29">
@@ -13588,20 +13669,6 @@
     <mergeCell ref="H32:I32"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:P47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="M37:O37"/>
     <mergeCell ref="P37:P38"/>
     <mergeCell ref="K43:K44"/>
@@ -13611,6 +13678,23 @@
     <mergeCell ref="O43:O44"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="L37:L38"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:P47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="D37:F37"/>
@@ -13624,7 +13708,6 @@
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="K24:K25"/>
     <mergeCell ref="L24:L25"/>
-    <mergeCell ref="K21:L21"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="P24:P25"/>
     <mergeCell ref="B32:C32"/>
@@ -13635,7 +13718,6 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="B12:G12"/>
@@ -13645,9 +13727,7 @@
     <mergeCell ref="P13:P14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="B3:B4"/>
@@ -13657,6 +13737,7 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:O3"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Example" prompt="20161_x000a_20162" sqref="H7:H10 H5 Q7:Q10 Q5 H15 H21 H17:H19 Q15 Q17:Q21 Q26 Q28:Q32 H26 H32 H28:H30 H39 H41:H45 Q39 Q41:Q45" xr:uid="{53577DD4-4943-49E6-8D63-5B9EA93720AA}">
@@ -22491,189 +22572,189 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="321" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="321" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="321"/>
+    <col min="1" max="1" width="20.140625" style="155" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="155" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="155"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="153" t="s">
         <v>611</v>
       </c>
-      <c r="B1" s="320" t="s">
+      <c r="B1" s="154" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="319" t="s">
+      <c r="A2" s="153" t="s">
         <v>613</v>
       </c>
-      <c r="B2" s="320" t="s">
+      <c r="B2" s="154" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="319" t="s">
+      <c r="A3" s="153" t="s">
         <v>615</v>
       </c>
-      <c r="B3" s="320" t="s">
+      <c r="B3" s="154" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="153" t="s">
         <v>617</v>
       </c>
-      <c r="B4" s="320" t="s">
+      <c r="B4" s="154" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="319" t="s">
+      <c r="A5" s="153" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="320" t="s">
+      <c r="B5" s="154" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="319" t="s">
+      <c r="A6" s="153" t="s">
         <v>621</v>
       </c>
-      <c r="B6" s="320" t="s">
+      <c r="B6" s="154" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="319" t="s">
+      <c r="A7" s="153" t="s">
         <v>623</v>
       </c>
-      <c r="B7" s="320" t="s">
+      <c r="B7" s="154" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="319" t="s">
+      <c r="A8" s="153" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="320" t="s">
+      <c r="B8" s="154" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="319" t="s">
+      <c r="A9" s="153" t="s">
         <v>627</v>
       </c>
-      <c r="B9" s="320" t="s">
+      <c r="B9" s="154" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="319"/>
-      <c r="B10" s="320"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="319" t="s">
+      <c r="A12" s="153" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="319" t="s">
+      <c r="A13" s="153" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="319" t="s">
+      <c r="A14" s="153" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="319" t="s">
+      <c r="A15" s="153" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="319" t="s">
+      <c r="A19" s="153" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="319" t="s">
+      <c r="A20" s="153" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="319" t="s">
+      <c r="A21" s="153" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="319" t="s">
+      <c r="A22" s="153" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="319" t="s">
+      <c r="A23" s="153" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="319" t="s">
+      <c r="A24" s="153" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="319" t="s">
+      <c r="A25" s="153" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="319" t="s">
+      <c r="A26" s="153" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="319" t="s">
+      <c r="A27" s="153" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="319" t="s">
+      <c r="A28" s="153" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="319" t="s">
+      <c r="A29" s="153" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="319" t="s">
+      <c r="A30" s="153" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="319" t="s">
+      <c r="A31" s="153" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="319" t="s">
+      <c r="A32" s="153" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="319" t="s">
+      <c r="A33" s="153" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="319" t="s">
+      <c r="A34" s="153" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="319" t="s">
+      <c r="A35" s="153" t="s">
         <v>647</v>
       </c>
     </row>
